--- a/Input data/in.xlsx
+++ b/Input data/in.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Locational-investment-signals\Input data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E183715B-7485-45D6-9983-F9E00FD6A6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E758759-DC0E-4714-A01D-01E249E6C7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cost" sheetId="2" r:id="rId1"/>
     <sheet name="timeseries" sheetId="6" r:id="rId2"/>
-    <sheet name="Wind shift" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
   <si>
     <t>Availability</t>
   </si>
@@ -180,30 +179,6 @@
   </si>
   <si>
     <t>South</t>
-  </si>
-  <si>
-    <t>Ratio</t>
-  </si>
-  <si>
-    <t>Anteil north</t>
-  </si>
-  <si>
-    <t>Anteil south</t>
-  </si>
-  <si>
-    <t>Total north</t>
-  </si>
-  <si>
-    <t>Total south</t>
-  </si>
-  <si>
-    <t>Total all</t>
-  </si>
-  <si>
-    <t>Factor north</t>
-  </si>
-  <si>
-    <t>Factor south</t>
   </si>
   <si>
     <t>0:00-1:30</t>
@@ -598,7 +573,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -751,7 +726,6 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4662,10 +4636,10 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="26"/>
-      <c r="O3" s="65" t="s">
+      <c r="O3" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="66"/>
+      <c r="P3" s="65"/>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4"/>
@@ -4792,7 +4766,7 @@
       <c r="N7" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="63" t="s">
+      <c r="O7" s="62" t="s">
         <v>19</v>
       </c>
       <c r="P7" s="23" t="e">
@@ -4815,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="28"/>
-      <c r="O8" s="64"/>
+      <c r="O8" s="63"/>
       <c r="P8" s="43"/>
     </row>
     <row r="9" spans="1:16" ht="25.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4975,7 +4949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BF2839-4BDE-4B18-A7A4-A5F1FDEE19B7}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -4987,17 +4961,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="67"/>
+      <c r="D1" s="66"/>
       <c r="E1" s="46"/>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C2" s="54" t="s">
@@ -5043,7 +5017,7 @@
     </row>
     <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="45" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B4" s="45">
         <v>1</v>
@@ -5072,7 +5046,7 @@
     </row>
     <row r="5" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="45" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B5" s="45">
         <v>2</v>
@@ -5105,7 +5079,7 @@
     </row>
     <row r="6" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="45" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B6" s="45">
         <v>3</v>
@@ -5138,7 +5112,7 @@
     </row>
     <row r="7" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="45" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B7" s="45">
         <v>4</v>
@@ -5171,7 +5145,7 @@
     </row>
     <row r="8" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="45" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B8" s="45">
         <v>5</v>
@@ -5204,7 +5178,7 @@
     </row>
     <row r="9" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="45" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B9" s="45">
         <v>6</v>
@@ -5237,7 +5211,7 @@
     </row>
     <row r="10" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="45" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B10" s="45">
         <v>7</v>
@@ -5270,7 +5244,7 @@
     </row>
     <row r="11" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="45" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B11" s="45">
         <v>8</v>
@@ -5303,7 +5277,7 @@
     </row>
     <row r="12" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="45" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B12" s="45">
         <v>9</v>
@@ -5336,7 +5310,7 @@
     </row>
     <row r="13" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="45" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B13" s="45">
         <v>10</v>
@@ -5369,7 +5343,7 @@
     </row>
     <row r="14" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="45" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B14" s="45">
         <v>11</v>
@@ -5402,7 +5376,7 @@
     </row>
     <row r="15" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="45" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B15" s="45">
         <v>12</v>
@@ -5435,7 +5409,7 @@
     </row>
     <row r="16" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="45" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B16" s="45">
         <v>13</v>
@@ -5468,7 +5442,7 @@
     </row>
     <row r="17" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="45" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B17" s="45">
         <v>14</v>
@@ -5501,7 +5475,7 @@
     </row>
     <row r="18" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="45" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B18" s="45">
         <v>15</v>
@@ -5534,7 +5508,7 @@
     </row>
     <row r="19" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="45" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B19" s="45">
         <v>16</v>
@@ -5905,7 +5879,7 @@
       <c r="C45" s="47"/>
       <c r="D45" s="47"/>
       <c r="L45" s="45" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="N45" s="45">
         <v>21</v>
@@ -6297,230 +6271,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFA3B40-044F-436C-80C0-806BB9FE0DB5}">
-  <dimension ref="A1:C37"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B2" s="45">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="45">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="45">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="45">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="45">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="45">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="45">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="45">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B10" s="45">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B11" s="45">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B12" s="45">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B13" s="45">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14">
-        <f>SUM(B2:B13)</f>
-        <v>3.27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B16" s="45">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="45">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="45">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="45">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="45">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="45">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B22" s="45">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B23" s="45">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B24" s="45">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B25" s="45">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B26" s="45">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B27" s="45">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28">
-        <f>SUM(B16:B27)</f>
-        <v>2.4399999999999995</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32">
-        <f>B14+B28</f>
-        <v>5.7099999999999991</v>
-      </c>
-      <c r="C32">
-        <f>B32</f>
-        <v>5.7099999999999991</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33">
-        <f>B14/B28</f>
-        <v>1.3401639344262297</v>
-      </c>
-      <c r="C33" s="62">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35">
-        <f>B14/B32</f>
-        <v>0.57267950963222425</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36">
-        <f>B28/B32</f>
-        <v>0.42732049036777581</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B37">
-        <f>(B33+1)/B32</f>
-        <v>0.40983606557377061</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Input data/in.xlsx
+++ b/Input data/in.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Locational-investment-signals\Input data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E758759-DC0E-4714-A01D-01E249E6C7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E655BA50-61E3-4C98-84F2-1BF2DBB1B2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5140" yWindow="3180" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cost" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
   <si>
     <t>Availability</t>
   </si>
@@ -221,12 +221,6 @@
   </si>
   <si>
     <t>19:30-21:00</t>
-  </si>
-  <si>
-    <t>21:00-22:30</t>
-  </si>
-  <si>
-    <t>22:30-24:00</t>
   </si>
   <si>
     <t>Soll</t>
@@ -1317,73 +1311,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>0.45</c:v>
+                  <c:v>0.48499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41</c:v>
+                  <c:v>0.30499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39</c:v>
+                  <c:v>0.19500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.23</c:v>
+                  <c:v>0.105</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.16999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.22</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
+                  <c:v>0.26500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1434,69 +1401,42 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.315</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.02</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.44</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.41</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1545,72 +1485,45 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>0.32</c:v>
+                  <c:v>0.32999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.13500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25</c:v>
+                  <c:v>0.11499999999999901</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.08</c:v>
+                  <c:v>8.4999999999999895E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.05</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.06</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.09</c:v>
+                  <c:v>0.29499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.13</c:v>
+                  <c:v>0.30499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>0.15</c:v>
                 </c:pt>
               </c:numCache>
@@ -1662,69 +1575,42 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.39</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2012,7 +1898,7 @@
             <c:strRef>
               <c:f>timeseries!$A$4:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0:00-1:30</c:v>
                 </c:pt>
@@ -2054,12 +1940,6 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>19:30-21:00</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21:00-22:30</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22:30-24:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2068,55 +1948,49 @@
             <c:numRef>
               <c:f>timeseries!$C$4:$C$19</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>16298.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18204.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21940.264999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22432.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24780.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20955.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18520.035</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19324.22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25682.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23438.240000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20418.27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20428.72</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16306.32</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>15532.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17064.96</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21223.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21433.03</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20421.52</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24444</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21190.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20720.04</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16868.52</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18546.28</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27601.199999999997</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23764.3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>21522.240000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19314.3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19848.32</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17854.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2158,7 +2032,7 @@
             <c:strRef>
               <c:f>timeseries!$A$4:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0:00-1:30</c:v>
                 </c:pt>
@@ -2200,12 +2074,6 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>19:30-21:00</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21:00-22:30</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22:30-24:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2214,55 +2082,49 @@
             <c:numRef>
               <c:f>timeseries!$D$4:$D$19</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>35445.119999999901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45290.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52425.735000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48954.239999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48104.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45755.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33724.964999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34640.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41926.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45497.7599999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45400.729999999901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42416.28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37088.18</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>36243.199999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>34647.040000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>49521.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>52473.97</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>52512.479999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45396</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>49443.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42067.96</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29988.48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30259.72</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>39718.800000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44133.7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45734.759999999995</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45066.7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42177.68</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>39739.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2358,7 +2220,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4949,8 +4811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BF2839-4BDE-4B18-A7A4-A5F1FDEE19B7}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5022,25 +4884,25 @@
       <c r="B4" s="45">
         <v>1</v>
       </c>
-      <c r="C4" s="47">
-        <v>15532.8</v>
-      </c>
-      <c r="D4" s="47">
-        <v>36243.199999999997</v>
+      <c r="C4">
+        <v>16298.88</v>
+      </c>
+      <c r="D4">
+        <v>35445.119999999901</v>
       </c>
       <c r="E4" s="45">
         <v>1</v>
       </c>
-      <c r="F4" s="45">
-        <v>0.45</v>
-      </c>
-      <c r="G4" s="45">
+      <c r="F4">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="45">
-        <v>0.32</v>
-      </c>
-      <c r="I4" s="45">
+      <c r="H4">
+        <v>0.32999999999999902</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
     </row>
@@ -5051,26 +4913,26 @@
       <c r="B5" s="45">
         <v>2</v>
       </c>
-      <c r="C5" s="47">
-        <v>17064.96</v>
-      </c>
-      <c r="D5" s="47">
-        <v>34647.040000000001</v>
+      <c r="C5">
+        <v>18204.96</v>
+      </c>
+      <c r="D5">
+        <v>45290.54</v>
       </c>
       <c r="E5" s="45">
         <v>2</v>
       </c>
-      <c r="F5" s="45">
-        <v>0.41</v>
-      </c>
-      <c r="G5" s="45">
-        <v>0</v>
-      </c>
-      <c r="H5" s="45">
-        <v>0.31</v>
-      </c>
-      <c r="I5" s="45">
-        <v>0</v>
+      <c r="F5">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="G5">
+        <v>0.06</v>
+      </c>
+      <c r="H5">
+        <v>0.22</v>
+      </c>
+      <c r="I5">
+        <v>0.01</v>
       </c>
       <c r="V5" s="56"/>
       <c r="W5" s="57"/>
@@ -5084,26 +4946,26 @@
       <c r="B6" s="45">
         <v>3</v>
       </c>
-      <c r="C6" s="47">
-        <v>21223.5</v>
-      </c>
-      <c r="D6" s="47">
-        <v>49521.5</v>
+      <c r="C6">
+        <v>21940.264999999999</v>
+      </c>
+      <c r="D6">
+        <v>52425.735000000001</v>
       </c>
       <c r="E6" s="45">
         <v>3</v>
       </c>
-      <c r="F6" s="45">
-        <v>0.39</v>
-      </c>
-      <c r="G6" s="45">
-        <v>0</v>
-      </c>
-      <c r="H6" s="45">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I6" s="45">
-        <v>0</v>
+      <c r="F6">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="G6">
+        <v>0.315</v>
+      </c>
+      <c r="H6">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.23499999999999999</v>
       </c>
       <c r="V6" s="59"/>
       <c r="W6" s="60"/>
@@ -5117,26 +4979,26 @@
       <c r="B7" s="45">
         <v>4</v>
       </c>
-      <c r="C7" s="47">
-        <v>21433.03</v>
-      </c>
-      <c r="D7" s="47">
-        <v>52473.97</v>
+      <c r="C7">
+        <v>22432.76</v>
+      </c>
+      <c r="D7">
+        <v>48954.239999999998</v>
       </c>
       <c r="E7" s="45">
         <v>4</v>
       </c>
-      <c r="F7" s="45">
-        <v>0.36</v>
-      </c>
-      <c r="G7" s="45">
-        <v>0</v>
-      </c>
-      <c r="H7" s="45">
-        <v>0.25</v>
-      </c>
-      <c r="I7" s="45">
-        <v>0</v>
+      <c r="F7">
+        <v>0.22</v>
+      </c>
+      <c r="G7">
+        <v>0.31</v>
+      </c>
+      <c r="H7">
+        <v>0.11499999999999901</v>
+      </c>
+      <c r="I7">
+        <v>0.20499999999999999</v>
       </c>
       <c r="V7" s="59"/>
       <c r="W7" s="60"/>
@@ -5150,26 +5012,26 @@
       <c r="B8" s="45">
         <v>5</v>
       </c>
-      <c r="C8" s="47">
-        <v>20421.52</v>
-      </c>
-      <c r="D8" s="47">
-        <v>52512.479999999996</v>
+      <c r="C8">
+        <v>24780.9</v>
+      </c>
+      <c r="D8">
+        <v>48104.1</v>
       </c>
       <c r="E8" s="45">
         <v>5</v>
       </c>
-      <c r="F8" s="45">
-        <v>0.33</v>
-      </c>
-      <c r="G8" s="45">
-        <v>0</v>
-      </c>
-      <c r="H8" s="45">
-        <v>0.19</v>
-      </c>
-      <c r="I8" s="45">
-        <v>0</v>
+      <c r="F8">
+        <v>0.18</v>
+      </c>
+      <c r="G8">
+        <v>0.09</v>
+      </c>
+      <c r="H8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I8">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="V8" s="59"/>
       <c r="W8" s="60"/>
@@ -5183,26 +5045,26 @@
       <c r="B9" s="45">
         <v>6</v>
       </c>
-      <c r="C9" s="47">
-        <v>24444</v>
-      </c>
-      <c r="D9" s="47">
-        <v>45396</v>
+      <c r="C9">
+        <v>20955.12</v>
+      </c>
+      <c r="D9">
+        <v>45755.88</v>
       </c>
       <c r="E9" s="45">
         <v>6</v>
       </c>
-      <c r="F9" s="45">
-        <v>0.3</v>
-      </c>
-      <c r="G9" s="45">
+      <c r="F9">
+        <v>0.125</v>
+      </c>
+      <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9" s="45">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I9" s="45">
-        <v>0.01</v>
+      <c r="H9">
+        <v>0.13</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
       </c>
       <c r="V9" s="59"/>
       <c r="W9" s="60"/>
@@ -5216,26 +5078,26 @@
       <c r="B10" s="45">
         <v>7</v>
       </c>
-      <c r="C10" s="47">
-        <v>21190.2</v>
-      </c>
-      <c r="D10" s="47">
-        <v>49443.8</v>
+      <c r="C10">
+        <v>18520.035</v>
+      </c>
+      <c r="D10">
+        <v>33724.964999999997</v>
       </c>
       <c r="E10" s="45">
         <v>7</v>
       </c>
-      <c r="F10" s="45">
-        <v>0.24</v>
-      </c>
-      <c r="G10" s="45">
-        <v>0.02</v>
-      </c>
-      <c r="H10" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="I10" s="45">
-        <v>7.0000000000000007E-2</v>
+      <c r="F10">
+        <v>0.06</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0.08</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
       </c>
       <c r="V10" s="59"/>
       <c r="W10" s="60"/>
@@ -5249,26 +5111,26 @@
       <c r="B11" s="45">
         <v>8</v>
       </c>
-      <c r="C11" s="47">
-        <v>20720.04</v>
-      </c>
-      <c r="D11" s="47">
-        <v>42067.96</v>
+      <c r="C11">
+        <v>19324.22</v>
+      </c>
+      <c r="D11">
+        <v>34640.78</v>
       </c>
       <c r="E11" s="45">
         <v>8</v>
       </c>
-      <c r="F11" s="45">
-        <v>0.23</v>
-      </c>
-      <c r="G11" s="45">
-        <v>0.11</v>
-      </c>
-      <c r="H11" s="45">
-        <v>0.08</v>
-      </c>
-      <c r="I11" s="45">
-        <v>0.2</v>
+      <c r="F11">
+        <v>0.105</v>
+      </c>
+      <c r="G11">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H11">
+        <v>8.4999999999999895E-2</v>
+      </c>
+      <c r="I11">
+        <v>0.02</v>
       </c>
       <c r="V11" s="59"/>
       <c r="W11" s="60"/>
@@ -5282,26 +5144,26 @@
       <c r="B12" s="45">
         <v>9</v>
       </c>
-      <c r="C12" s="47">
-        <v>16868.52</v>
-      </c>
-      <c r="D12" s="47">
-        <v>29988.48</v>
+      <c r="C12">
+        <v>25682.75</v>
+      </c>
+      <c r="D12">
+        <v>41926.25</v>
       </c>
       <c r="E12" s="45">
         <v>9</v>
       </c>
-      <c r="F12" s="45">
-        <v>0.22</v>
-      </c>
-      <c r="G12" s="45">
-        <v>0.27</v>
-      </c>
-      <c r="H12" s="45">
-        <v>0.05</v>
-      </c>
-      <c r="I12" s="45">
-        <v>0.39</v>
+      <c r="F12">
+        <v>0.16999999999999901</v>
+      </c>
+      <c r="G12">
+        <v>0.19</v>
+      </c>
+      <c r="H12">
+        <v>0.16</v>
+      </c>
+      <c r="I12">
+        <v>0.29499999999999998</v>
       </c>
       <c r="V12" s="59"/>
       <c r="W12" s="60"/>
@@ -5315,26 +5177,26 @@
       <c r="B13" s="45">
         <v>10</v>
       </c>
-      <c r="C13" s="47">
-        <v>18546.28</v>
-      </c>
-      <c r="D13" s="47">
-        <v>30259.72</v>
+      <c r="C13">
+        <v>23438.240000000002</v>
+      </c>
+      <c r="D13">
+        <v>45497.7599999999</v>
       </c>
       <c r="E13" s="45">
         <v>10</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13">
+        <v>0.22</v>
+      </c>
+      <c r="G13">
+        <v>0.32</v>
+      </c>
+      <c r="H13">
         <v>0.21</v>
       </c>
-      <c r="G13" s="45">
-        <v>0.38</v>
-      </c>
-      <c r="H13" s="45">
-        <v>0.06</v>
-      </c>
-      <c r="I13" s="45">
-        <v>0.46</v>
+      <c r="I13">
+        <v>0.45</v>
       </c>
       <c r="V13" s="59"/>
       <c r="W13" s="60"/>
@@ -5348,26 +5210,26 @@
       <c r="B14" s="45">
         <v>11</v>
       </c>
-      <c r="C14" s="47">
-        <v>27601.199999999997</v>
-      </c>
-      <c r="D14" s="47">
-        <v>39718.800000000003</v>
+      <c r="C14">
+        <v>20418.27</v>
+      </c>
+      <c r="D14">
+        <v>45400.729999999901</v>
       </c>
       <c r="E14" s="45">
         <v>11</v>
       </c>
-      <c r="F14" s="45">
-        <v>0.22</v>
-      </c>
-      <c r="G14" s="45">
-        <v>0.43</v>
-      </c>
-      <c r="H14" s="45">
-        <v>0.09</v>
-      </c>
-      <c r="I14" s="45">
-        <v>0.48</v>
+      <c r="F14">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="G14">
+        <v>0.24</v>
+      </c>
+      <c r="H14">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="I14">
+        <v>0.41</v>
       </c>
       <c r="V14" s="59"/>
       <c r="W14" s="60"/>
@@ -5381,26 +5243,26 @@
       <c r="B15" s="45">
         <v>12</v>
       </c>
-      <c r="C15" s="47">
-        <v>23764.3</v>
-      </c>
-      <c r="D15" s="47">
-        <v>44133.7</v>
+      <c r="C15">
+        <v>20428.72</v>
+      </c>
+      <c r="D15">
+        <v>42416.28</v>
       </c>
       <c r="E15" s="45">
         <v>12</v>
       </c>
-      <c r="F15" s="45">
-        <v>0.2</v>
-      </c>
-      <c r="G15" s="45">
-        <v>0.44</v>
-      </c>
-      <c r="H15" s="45">
-        <v>0.13</v>
-      </c>
-      <c r="I15" s="45">
-        <v>0.47</v>
+      <c r="F15">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G15">
+        <v>0.02</v>
+      </c>
+      <c r="H15">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="I15">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="V15" s="59"/>
       <c r="W15" s="60"/>
@@ -5414,26 +5276,26 @@
       <c r="B16" s="45">
         <v>13</v>
       </c>
-      <c r="C16" s="47">
-        <v>21522.240000000002</v>
-      </c>
-      <c r="D16" s="47">
-        <v>45734.759999999995</v>
+      <c r="C16">
+        <v>16306.32</v>
+      </c>
+      <c r="D16">
+        <v>37088.18</v>
       </c>
       <c r="E16" s="45">
         <v>13</v>
       </c>
-      <c r="F16" s="45">
-        <v>0.19</v>
-      </c>
-      <c r="G16" s="45">
-        <v>0.41</v>
-      </c>
-      <c r="H16" s="45">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I16" s="45">
-        <v>0.39</v>
+      <c r="F16">
+        <v>0.16</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0.12</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
       </c>
       <c r="V16" s="59"/>
       <c r="W16" s="60"/>
@@ -5447,26 +5309,26 @@
       <c r="B17" s="45">
         <v>14</v>
       </c>
-      <c r="C17" s="47">
-        <v>19314.3</v>
-      </c>
-      <c r="D17" s="47">
-        <v>45066.7</v>
+      <c r="C17">
+        <v>15532.8</v>
+      </c>
+      <c r="D17">
+        <v>36243.199999999997</v>
       </c>
       <c r="E17" s="45">
         <v>14</v>
       </c>
-      <c r="F17" s="45">
-        <v>0.17</v>
-      </c>
-      <c r="G17" s="45">
-        <v>0.35</v>
-      </c>
-      <c r="H17" s="45">
+      <c r="F17">
+        <v>0.21</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>0.15</v>
       </c>
-      <c r="I17" s="45">
-        <v>0.26</v>
+      <c r="I17">
+        <v>0</v>
       </c>
       <c r="V17" s="59"/>
       <c r="W17" s="60"/>
@@ -5474,87 +5336,22 @@
       <c r="Y17" s="60"/>
     </row>
     <row r="18" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="45">
-        <v>15</v>
-      </c>
-      <c r="C18" s="47">
-        <v>19848.32</v>
-      </c>
-      <c r="D18" s="47">
-        <v>42177.68</v>
-      </c>
-      <c r="E18" s="45">
-        <v>15</v>
-      </c>
-      <c r="F18" s="45">
-        <v>0.15</v>
-      </c>
-      <c r="G18" s="45">
-        <v>0.21</v>
-      </c>
-      <c r="H18" s="45">
-        <v>0.16</v>
-      </c>
-      <c r="I18" s="45">
-        <v>0.15</v>
-      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
       <c r="V18" s="59"/>
       <c r="W18" s="60"/>
       <c r="X18" s="61"/>
       <c r="Y18" s="60"/>
     </row>
     <row r="19" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="45">
-        <v>16</v>
-      </c>
-      <c r="C19" s="47">
-        <v>17854.14</v>
-      </c>
-      <c r="D19" s="47">
-        <v>39739.86</v>
-      </c>
-      <c r="E19" s="45">
-        <v>16</v>
-      </c>
-      <c r="F19" s="45">
-        <v>0.12</v>
-      </c>
-      <c r="G19" s="45">
-        <v>0.11</v>
-      </c>
-      <c r="H19" s="45">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I19" s="45">
-        <v>0.08</v>
-      </c>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
       <c r="V19" s="59"/>
       <c r="W19" s="60"/>
       <c r="X19" s="61"/>
       <c r="Y19" s="60"/>
     </row>
     <row r="20" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E20" s="45">
-        <v>17</v>
-      </c>
-      <c r="F20" s="45">
-        <v>0.11</v>
-      </c>
-      <c r="G20" s="45">
-        <v>0.05</v>
-      </c>
-      <c r="H20" s="45">
-        <v>0.13</v>
-      </c>
-      <c r="I20" s="45">
-        <v>0.04</v>
-      </c>
       <c r="V20" s="59"/>
       <c r="W20" s="60"/>
       <c r="X20" s="61"/>
@@ -5563,63 +5360,18 @@
     <row r="21" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C21" s="47"/>
       <c r="D21" s="47"/>
-      <c r="E21" s="45">
-        <v>18</v>
-      </c>
-      <c r="F21" s="45">
-        <v>0.08</v>
-      </c>
-      <c r="G21" s="45">
-        <v>0.01</v>
-      </c>
-      <c r="H21" s="45">
-        <v>0.11</v>
-      </c>
-      <c r="I21" s="45">
-        <v>0.02</v>
-      </c>
       <c r="V21" s="59"/>
       <c r="W21" s="60"/>
       <c r="X21" s="61"/>
       <c r="Y21" s="60"/>
     </row>
     <row r="22" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E22" s="45">
-        <v>19</v>
-      </c>
-      <c r="F22" s="45">
-        <v>0.09</v>
-      </c>
-      <c r="G22" s="45">
-        <v>0</v>
-      </c>
-      <c r="H22" s="45">
-        <v>0.08</v>
-      </c>
-      <c r="I22" s="45">
-        <v>0</v>
-      </c>
       <c r="V22" s="59"/>
       <c r="W22" s="60"/>
       <c r="X22" s="61"/>
       <c r="Y22" s="60"/>
     </row>
     <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E23" s="45">
-        <v>20</v>
-      </c>
-      <c r="F23" s="45">
-        <v>0.11</v>
-      </c>
-      <c r="G23" s="45">
-        <v>0</v>
-      </c>
-      <c r="H23" s="45">
-        <v>0.11</v>
-      </c>
-      <c r="I23" s="45">
-        <v>0</v>
-      </c>
       <c r="V23" s="59"/>
       <c r="W23" s="60"/>
       <c r="X23" s="61"/>
@@ -5628,63 +5380,18 @@
     <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
-      <c r="E24" s="45">
-        <v>21</v>
-      </c>
-      <c r="F24" s="45">
-        <v>0.09</v>
-      </c>
-      <c r="G24" s="45">
-        <v>0</v>
-      </c>
-      <c r="H24" s="45">
-        <v>0.13</v>
-      </c>
-      <c r="I24" s="45">
-        <v>0</v>
-      </c>
       <c r="V24" s="59"/>
       <c r="W24" s="60"/>
       <c r="X24" s="61"/>
       <c r="Y24" s="60"/>
     </row>
     <row r="25" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E25" s="45">
-        <v>22</v>
-      </c>
-      <c r="F25" s="45">
-        <v>0.08</v>
-      </c>
-      <c r="G25" s="45">
-        <v>0</v>
-      </c>
-      <c r="H25" s="45">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I25" s="45">
-        <v>0</v>
-      </c>
       <c r="V25" s="59"/>
       <c r="W25" s="60"/>
       <c r="X25" s="61"/>
       <c r="Y25" s="60"/>
     </row>
     <row r="26" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E26" s="45">
-        <v>23</v>
-      </c>
-      <c r="F26" s="45">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G26" s="45">
-        <v>0</v>
-      </c>
-      <c r="H26" s="45">
-        <v>0.15</v>
-      </c>
-      <c r="I26" s="45">
-        <v>0</v>
-      </c>
       <c r="V26" s="59"/>
       <c r="W26" s="60"/>
       <c r="X26" s="61"/>
@@ -5693,21 +5400,6 @@
     <row r="27" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C27" s="47"/>
       <c r="D27" s="47"/>
-      <c r="E27" s="45">
-        <v>24</v>
-      </c>
-      <c r="F27" s="45">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G27" s="45">
-        <v>0</v>
-      </c>
-      <c r="H27" s="45">
-        <v>0.15</v>
-      </c>
-      <c r="I27" s="45">
-        <v>0</v>
-      </c>
       <c r="V27" s="59"/>
       <c r="W27" s="60"/>
       <c r="X27" s="61"/>
@@ -5759,11 +5451,11 @@
       </c>
       <c r="M35" s="47">
         <f>N43</f>
-        <v>1835.7913043478266</v>
+        <v>1861.4999999999995</v>
       </c>
       <c r="N35" s="47">
         <f>P43</f>
-        <v>1310.1913043478264</v>
+        <v>1548.6428571428557</v>
       </c>
     </row>
     <row r="36" spans="3:17" x14ac:dyDescent="0.35">
@@ -5774,11 +5466,11 @@
       </c>
       <c r="M36" s="47">
         <f>O43</f>
-        <v>1062.6260869565217</v>
+        <v>976.11428571428576</v>
       </c>
       <c r="N36" s="47">
         <f>Q43</f>
-        <v>1150.2260869565218</v>
+        <v>1107.5142857142857</v>
       </c>
     </row>
     <row r="37" spans="3:17" x14ac:dyDescent="0.35">
@@ -5837,19 +5529,19 @@
       </c>
       <c r="N43" s="51">
         <f>(8760*N44)</f>
-        <v>1835.7913043478266</v>
+        <v>1861.4999999999995</v>
       </c>
       <c r="O43" s="51">
         <f t="shared" ref="O43:Q43" si="0">(8760*O44)</f>
-        <v>1062.6260869565217</v>
+        <v>976.11428571428576</v>
       </c>
       <c r="P43" s="51">
         <f t="shared" si="0"/>
-        <v>1310.1913043478264</v>
+        <v>1548.6428571428557</v>
       </c>
       <c r="Q43" s="51">
         <f t="shared" si="0"/>
-        <v>1150.2260869565218</v>
+        <v>1107.5142857142857</v>
       </c>
     </row>
     <row r="44" spans="3:17" x14ac:dyDescent="0.35">
@@ -5860,26 +5552,26 @@
       </c>
       <c r="N44" s="52">
         <f>AVERAGE(F4:F26)</f>
-        <v>0.2095652173913044</v>
+        <v>0.21249999999999994</v>
       </c>
       <c r="O44" s="52">
         <f>AVERAGE(G4:G26)</f>
-        <v>0.12130434782608694</v>
+        <v>0.11142857142857143</v>
       </c>
       <c r="P44" s="52">
         <f>AVERAGE(H4:H26)</f>
-        <v>0.14956521739130438</v>
+        <v>0.17678571428571413</v>
       </c>
       <c r="Q44" s="52">
         <f>AVERAGE(I4:I26)</f>
-        <v>0.13130434782608696</v>
+        <v>0.12642857142857142</v>
       </c>
     </row>
     <row r="45" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C45" s="47"/>
       <c r="D45" s="47"/>
       <c r="L45" s="45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N45" s="45">
         <v>21</v>

--- a/Input data/in.xlsx
+++ b/Input data/in.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Locational-investment-signals\Input data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.eicke\Documents\Locational-investment-signals\Two node models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E655BA50-61E3-4C98-84F2-1BF2DBB1B2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677D732B-954E-443C-88E2-1E908BCB1FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5140" yWindow="3180" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cost" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>Availability</t>
   </si>
@@ -117,113 +117,107 @@
     <t>south</t>
   </si>
   <si>
+    <t>in %</t>
+  </si>
+  <si>
+    <t>Cost of transmission extension</t>
+  </si>
+  <si>
+    <t>Cost for Südlink (€)</t>
+  </si>
+  <si>
+    <t>Length of Südlink (km)</t>
+  </si>
+  <si>
+    <t>Capacity of Südlink (MW)</t>
+  </si>
+  <si>
+    <t>Cost (€/MW)</t>
+  </si>
+  <si>
+    <t>Lifetime (y)</t>
+  </si>
+  <si>
+    <t>Annulized costs</t>
+  </si>
+  <si>
+    <t>Additional costs in southern region</t>
+  </si>
+  <si>
+    <t>cost_add_var_s</t>
+  </si>
+  <si>
+    <t>cost_add_fix_s</t>
+  </si>
+  <si>
+    <t>CPF</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>peak</t>
+  </si>
+  <si>
+    <t>200€ per km per year</t>
+  </si>
+  <si>
+    <t>in MW</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>0:00-1:30</t>
+  </si>
+  <si>
+    <t>1:30-3:00</t>
+  </si>
+  <si>
+    <t>3:00-4:30</t>
+  </si>
+  <si>
+    <t>4:30-6:00</t>
+  </si>
+  <si>
+    <t>6:00-7:30</t>
+  </si>
+  <si>
+    <t>7:30-9:00</t>
+  </si>
+  <si>
+    <t>9:00-10:30</t>
+  </si>
+  <si>
+    <t>10:30-12:00</t>
+  </si>
+  <si>
+    <t>12:00-13:30</t>
+  </si>
+  <si>
+    <t>13:30-15:00</t>
+  </si>
+  <si>
+    <t>15:00-16:30</t>
+  </si>
+  <si>
+    <t>16:30-18:00</t>
+  </si>
+  <si>
+    <t>Soll</t>
+  </si>
+  <si>
     <t>AFC
-(€/kW)</t>
-  </si>
-  <si>
-    <t>in %</t>
-  </si>
-  <si>
-    <t>Cost of transmission extension</t>
-  </si>
-  <si>
-    <t>Cost for Südlink (€)</t>
-  </si>
-  <si>
-    <t>Length of Südlink (km)</t>
-  </si>
-  <si>
-    <t>Capacity of Südlink (MW)</t>
-  </si>
-  <si>
-    <t>Cost (€/MW)</t>
-  </si>
-  <si>
-    <t>Lifetime (y)</t>
-  </si>
-  <si>
-    <t>Annulized costs</t>
-  </si>
-  <si>
-    <t>Additional costs in southern region</t>
-  </si>
-  <si>
-    <t>cost_add_var_s</t>
-  </si>
-  <si>
-    <t>cost_add_fix_s</t>
-  </si>
-  <si>
-    <t>CPF</t>
-  </si>
-  <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>peak</t>
-  </si>
-  <si>
-    <t>200€ per km per year</t>
-  </si>
-  <si>
-    <t>in MW</t>
-  </si>
-  <si>
-    <t>Wind</t>
-  </si>
-  <si>
-    <t>Solar</t>
-  </si>
-  <si>
-    <t>North</t>
-  </si>
-  <si>
-    <t>South</t>
-  </si>
-  <si>
-    <t>0:00-1:30</t>
-  </si>
-  <si>
-    <t>1:30-3:00</t>
-  </si>
-  <si>
-    <t>3:00-4:30</t>
-  </si>
-  <si>
-    <t>4:30-6:00</t>
-  </si>
-  <si>
-    <t>6:00-7:30</t>
-  </si>
-  <si>
-    <t>7:30-9:00</t>
-  </si>
-  <si>
-    <t>9:00-10:30</t>
-  </si>
-  <si>
-    <t>10:30-12:00</t>
-  </si>
-  <si>
-    <t>12:00-13:30</t>
-  </si>
-  <si>
-    <t>13:30-15:00</t>
-  </si>
-  <si>
-    <t>15:00-16:30</t>
-  </si>
-  <si>
-    <t>16:30-18:00</t>
-  </si>
-  <si>
-    <t>18:00-19:30</t>
-  </si>
-  <si>
-    <t>19:30-21:00</t>
-  </si>
-  <si>
-    <t>Soll</t>
+(€/kW p.a.)</t>
   </si>
 </sst>
 </file>
@@ -821,7 +815,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -970,10 +964,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>603.07999999999993</c:v>
+                  <c:v>630.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1033,10 +1027,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>679.48</c:v>
+                  <c:v>679.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1102,7 +1096,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="589632111"/>
@@ -1162,7 +1156,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="589627951"/>
@@ -1203,7 +1197,7 @@
       <a:pPr>
         <a:defRPr sz="1100"/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1255,7 +1249,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1311,46 +1305,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>0.48499999999999999</c:v>
+                  <c:v>0.43333333333333302</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30499999999999999</c:v>
+                  <c:v>0.245</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.19500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.22</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.105</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.16999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.26500000000000001</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.27500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.21</c:v>
+                  <c:v>0.17499999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1401,42 +1389,36 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.06</c:v>
+                  <c:v>0.19500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.315</c:v>
+                  <c:v>0.35499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.09</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.315</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.24</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1485,46 +1467,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>0.32999999999999902</c:v>
+                  <c:v>0.30666666666666598</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22</c:v>
+                  <c:v>0.16499999999999901</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13500000000000001</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11499999999999901</c:v>
+                  <c:v>0.14499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.245</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.4999999999999895E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.29499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.30499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1575,42 +1551,36 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>8.4999999999999895E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23499999999999999</c:v>
+                  <c:v>0.30499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20499999999999999</c:v>
+                  <c:v>9.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.29499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.41</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.4999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1676,7 +1646,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509294543"/>
@@ -1735,7 +1705,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509296207"/>
@@ -1777,7 +1747,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1807,7 +1777,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1858,7 +1828,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1898,7 +1868,7 @@
             <c:strRef>
               <c:f>timeseries!$A$4:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0:00-1:30</c:v>
                 </c:pt>
@@ -1934,12 +1904,6 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>16:30-18:00</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18:00-19:30</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19:30-21:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1951,46 +1915,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>16298.88</c:v>
+                  <c:v>12728.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18204.96</c:v>
+                  <c:v>14509.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21940.264999999999</c:v>
+                  <c:v>15966.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22432.76</c:v>
+                  <c:v>22739.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24780.9</c:v>
+                  <c:v>19954.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20955.12</c:v>
+                  <c:v>21614.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18520.035</c:v>
+                  <c:v>18904.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19324.22</c:v>
+                  <c:v>15283.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25682.75</c:v>
+                  <c:v>24613.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23438.240000000002</c:v>
+                  <c:v>19174.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20418.27</c:v>
+                  <c:v>14419.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20428.72</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16306.32</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15532.8</c:v>
+                  <c:v>15409.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2032,7 +1990,7 @@
             <c:strRef>
               <c:f>timeseries!$A$4:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0:00-1:30</c:v>
                 </c:pt>
@@ -2068,12 +2026,6 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>16:30-18:00</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18:00-19:30</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19:30-21:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2085,46 +2037,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>35445.119999999901</c:v>
+                  <c:v>31989.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45290.54</c:v>
+                  <c:v>41208.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52425.735000000001</c:v>
+                  <c:v>46824</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48954.239999999998</c:v>
+                  <c:v>37273.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48104.1</c:v>
+                  <c:v>39508.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45755.88</c:v>
+                  <c:v>29103.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33724.964999999997</c:v>
+                  <c:v>25812.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34640.78</c:v>
+                  <c:v>40433.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41926.25</c:v>
+                  <c:v>38176.699999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45497.7599999999</c:v>
+                  <c:v>40838.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45400.729999999901</c:v>
+                  <c:v>45043.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42416.28</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>37088.18</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>36243.199999999997</c:v>
+                  <c:v>35308.400000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2189,7 +2135,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509307439"/>
@@ -2248,7 +2194,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509309103"/>
@@ -2290,7 +2236,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2320,7 +2266,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4422,8 +4368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4485,14 +4431,14 @@
         <v>11</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="H3" s="39" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -4517,10 +4463,10 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -4536,7 +4482,7 @@
     </row>
     <row r="5" spans="1:16" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="7">
         <v>2000</v>
@@ -4551,26 +4497,26 @@
         <v>0.32</v>
       </c>
       <c r="G5" s="42">
-        <v>95</v>
+        <v>280</v>
       </c>
       <c r="H5" s="40">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="N5" s="28" t="s">
         <v>13</v>
       </c>
       <c r="O5" s="12">
         <f>G5</f>
-        <v>95</v>
+        <v>280</v>
       </c>
       <c r="P5" s="13">
         <f t="shared" ref="P5" si="0">G5+H5*$P$4/1000</f>
-        <v>603.07999999999993</v>
+        <v>630.4</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="7">
         <v>1700</v>
@@ -4585,21 +4531,21 @@
         <v>0.27</v>
       </c>
       <c r="G6" s="42">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="H6" s="40">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>14</v>
       </c>
       <c r="O6" s="14">
         <f>G6</f>
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="P6" s="15">
         <f>G6+H6*$P$4/1000</f>
-        <v>679.48</v>
+        <v>679.4</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4619,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="42">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H7" s="40">
         <f>E7/D7+F7/D7*$C$33</f>
@@ -4645,7 +4591,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
       <c r="G8" s="42">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="H8" s="40">
         <v>0</v>
@@ -4721,12 +4667,12 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="11">
         <f>10000000000</f>
@@ -4735,7 +4681,7 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="11">
         <v>700</v>
@@ -4743,7 +4689,7 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" s="11">
         <v>4000</v>
@@ -4755,7 +4701,7 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41" s="44">
         <f>C37/C39</f>
@@ -4767,7 +4713,7 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42" s="11">
         <v>40</v>
@@ -4778,7 +4724,7 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B44" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C44" s="11">
         <f>C41*$C$30*(1+$C$30)^C42/((1+$C$30)^C42-1)</f>
@@ -4793,7 +4739,7 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C47" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4811,8 +4757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BF2839-4BDE-4B18-A7A4-A5F1FDEE19B7}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:I17"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4824,12 +4770,12 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C1" s="66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="66"/>
       <c r="E1" s="46"/>
       <c r="F1" s="66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="66"/>
       <c r="H1" s="66"/>
@@ -4879,28 +4825,28 @@
     </row>
     <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="45">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>16298.88</v>
+        <v>12728.1</v>
       </c>
       <c r="D4">
-        <v>35445.119999999901</v>
+        <v>31989.3</v>
       </c>
       <c r="E4" s="45">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.48499999999999999</v>
+        <v>0.43333333333333302</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.32999999999999902</v>
+        <v>0.30666666666666598</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -4908,31 +4854,31 @@
     </row>
     <row r="5" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="45">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>18204.96</v>
+        <v>14509.7</v>
       </c>
       <c r="D5">
-        <v>45290.54</v>
+        <v>41208.1</v>
       </c>
       <c r="E5" s="45">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>0.30499999999999999</v>
+        <v>0.245</v>
       </c>
       <c r="G5">
-        <v>0.06</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="H5">
-        <v>0.22</v>
+        <v>0.16499999999999901</v>
       </c>
       <c r="I5">
-        <v>0.01</v>
+        <v>8.4999999999999895E-2</v>
       </c>
       <c r="V5" s="56"/>
       <c r="W5" s="57"/>
@@ -4941,16 +4887,16 @@
     </row>
     <row r="6" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="45">
         <v>3</v>
       </c>
       <c r="C6">
-        <v>21940.264999999999</v>
+        <v>15966.6</v>
       </c>
       <c r="D6">
-        <v>52425.735000000001</v>
+        <v>46824</v>
       </c>
       <c r="E6" s="45">
         <v>3</v>
@@ -4959,13 +4905,13 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="G6">
-        <v>0.315</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="H6">
-        <v>0.13500000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I6">
-        <v>0.23499999999999999</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="V6" s="59"/>
       <c r="W6" s="60"/>
@@ -4974,31 +4920,31 @@
     </row>
     <row r="7" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="45">
         <v>4</v>
       </c>
       <c r="C7">
-        <v>22432.76</v>
+        <v>22739.5</v>
       </c>
       <c r="D7">
-        <v>48954.239999999998</v>
+        <v>37273.199999999997</v>
       </c>
       <c r="E7" s="45">
         <v>4</v>
       </c>
       <c r="F7">
-        <v>0.22</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="G7">
-        <v>0.31</v>
+        <v>0.18</v>
       </c>
       <c r="H7">
-        <v>0.11499999999999901</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="I7">
-        <v>0.20499999999999999</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="V7" s="59"/>
       <c r="W7" s="60"/>
@@ -5007,31 +4953,31 @@
     </row>
     <row r="8" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="45">
         <v>5</v>
       </c>
       <c r="C8">
-        <v>24780.9</v>
+        <v>19954.2</v>
       </c>
       <c r="D8">
-        <v>48104.1</v>
+        <v>39508.5</v>
       </c>
       <c r="E8" s="45">
         <v>5</v>
       </c>
       <c r="F8">
-        <v>0.18</v>
+        <v>0.125</v>
       </c>
       <c r="G8">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I8">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="V8" s="59"/>
       <c r="W8" s="60"/>
@@ -5040,28 +4986,28 @@
     </row>
     <row r="9" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="45">
         <v>6</v>
       </c>
       <c r="C9">
-        <v>20955.12</v>
+        <v>21614.9</v>
       </c>
       <c r="D9">
-        <v>45755.88</v>
+        <v>29103.4</v>
       </c>
       <c r="E9" s="45">
         <v>6</v>
       </c>
       <c r="F9">
-        <v>0.125</v>
+        <v>0.06</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -5073,31 +5019,31 @@
     </row>
     <row r="10" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="45">
         <v>7</v>
       </c>
       <c r="C10">
-        <v>18520.035</v>
+        <v>18904.599999999999</v>
       </c>
       <c r="D10">
-        <v>33724.964999999997</v>
+        <v>25812.799999999999</v>
       </c>
       <c r="E10" s="45">
         <v>7</v>
       </c>
       <c r="F10">
-        <v>0.06</v>
+        <v>0.105</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H10">
-        <v>0.08</v>
+        <v>8.4999999999999895E-2</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="V10" s="59"/>
       <c r="W10" s="60"/>
@@ -5106,31 +5052,31 @@
     </row>
     <row r="11" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="45">
         <v>8</v>
       </c>
       <c r="C11">
-        <v>19324.22</v>
+        <v>15283.9</v>
       </c>
       <c r="D11">
-        <v>34640.78</v>
+        <v>40433.800000000003</v>
       </c>
       <c r="E11" s="45">
         <v>8</v>
       </c>
       <c r="F11">
-        <v>0.105</v>
+        <v>0.16999999999999901</v>
       </c>
       <c r="G11">
-        <v>1.4999999999999999E-2</v>
+        <v>0.19</v>
       </c>
       <c r="H11">
-        <v>8.4999999999999895E-2</v>
+        <v>0.16</v>
       </c>
       <c r="I11">
-        <v>0.02</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="V11" s="59"/>
       <c r="W11" s="60"/>
@@ -5139,31 +5085,31 @@
     </row>
     <row r="12" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="45">
         <v>9</v>
       </c>
       <c r="C12">
-        <v>25682.75</v>
+        <v>24613.9</v>
       </c>
       <c r="D12">
-        <v>41926.25</v>
+        <v>38176.699999999997</v>
       </c>
       <c r="E12" s="45">
         <v>9</v>
       </c>
       <c r="F12">
-        <v>0.16999999999999901</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="G12">
-        <v>0.19</v>
+        <v>0.315</v>
       </c>
       <c r="H12">
-        <v>0.16</v>
+        <v>0.245</v>
       </c>
       <c r="I12">
-        <v>0.29499999999999998</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="V12" s="59"/>
       <c r="W12" s="60"/>
@@ -5172,31 +5118,31 @@
     </row>
     <row r="13" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="45">
         <v>10</v>
       </c>
       <c r="C13">
-        <v>23438.240000000002</v>
+        <v>19174.3</v>
       </c>
       <c r="D13">
-        <v>45497.7599999999</v>
+        <v>40838.400000000001</v>
       </c>
       <c r="E13" s="45">
         <v>10</v>
       </c>
       <c r="F13">
-        <v>0.22</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="G13">
+        <v>0.105</v>
+      </c>
+      <c r="H13">
         <v>0.32</v>
       </c>
-      <c r="H13">
-        <v>0.21</v>
-      </c>
       <c r="I13">
-        <v>0.45</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="V13" s="59"/>
       <c r="W13" s="60"/>
@@ -5205,31 +5151,31 @@
     </row>
     <row r="14" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="45">
         <v>11</v>
       </c>
       <c r="C14">
-        <v>20418.27</v>
+        <v>14419.5</v>
       </c>
       <c r="D14">
-        <v>45400.729999999901</v>
+        <v>45043.199999999997</v>
       </c>
       <c r="E14" s="45">
         <v>11</v>
       </c>
       <c r="F14">
-        <v>0.26500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="G14">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.29499999999999998</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="I14">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="V14" s="59"/>
       <c r="W14" s="60"/>
@@ -5238,31 +5184,31 @@
     </row>
     <row r="15" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="45">
         <v>12</v>
       </c>
       <c r="C15">
-        <v>20428.72</v>
+        <v>15409.9</v>
       </c>
       <c r="D15">
-        <v>42416.28</v>
+        <v>35308.400000000001</v>
       </c>
       <c r="E15" s="45">
         <v>12</v>
       </c>
       <c r="F15">
-        <v>0.27500000000000002</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="G15">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0.30499999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="I15">
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="V15" s="59"/>
       <c r="W15" s="60"/>
@@ -5270,72 +5216,30 @@
       <c r="Y15" s="60"/>
     </row>
     <row r="16" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="45">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <v>16306.32</v>
-      </c>
-      <c r="D16">
-        <v>37088.18</v>
-      </c>
-      <c r="E16" s="45">
-        <v>13</v>
-      </c>
-      <c r="F16">
-        <v>0.16</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0.12</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
       <c r="V16" s="59"/>
       <c r="W16" s="60"/>
       <c r="X16" s="61"/>
       <c r="Y16" s="60"/>
     </row>
-    <row r="17" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="45">
-        <v>14</v>
-      </c>
-      <c r="C17">
-        <v>15532.8</v>
-      </c>
-      <c r="D17">
-        <v>36243.199999999997</v>
-      </c>
-      <c r="E17" s="45">
-        <v>14</v>
-      </c>
-      <c r="F17">
-        <v>0.21</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0.15</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
+    <row r="17" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
       <c r="V17" s="59"/>
       <c r="W17" s="60"/>
       <c r="X17" s="61"/>
       <c r="Y17" s="60"/>
     </row>
-    <row r="18" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
       <c r="V18" s="59"/>
@@ -5343,7 +5247,7 @@
       <c r="X18" s="61"/>
       <c r="Y18" s="60"/>
     </row>
-    <row r="19" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C19" s="47"/>
       <c r="D19" s="47"/>
       <c r="V19" s="59"/>
@@ -5351,13 +5255,13 @@
       <c r="X19" s="61"/>
       <c r="Y19" s="60"/>
     </row>
-    <row r="20" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="V20" s="59"/>
       <c r="W20" s="60"/>
       <c r="X20" s="61"/>
       <c r="Y20" s="60"/>
     </row>
-    <row r="21" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C21" s="47"/>
       <c r="D21" s="47"/>
       <c r="V21" s="59"/>
@@ -5365,19 +5269,19 @@
       <c r="X21" s="61"/>
       <c r="Y21" s="60"/>
     </row>
-    <row r="22" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="V22" s="59"/>
       <c r="W22" s="60"/>
       <c r="X22" s="61"/>
       <c r="Y22" s="60"/>
     </row>
-    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="V23" s="59"/>
       <c r="W23" s="60"/>
       <c r="X23" s="61"/>
       <c r="Y23" s="60"/>
     </row>
-    <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
       <c r="V24" s="59"/>
@@ -5385,19 +5289,19 @@
       <c r="X24" s="61"/>
       <c r="Y24" s="60"/>
     </row>
-    <row r="25" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="V25" s="59"/>
       <c r="W25" s="60"/>
       <c r="X25" s="61"/>
       <c r="Y25" s="60"/>
     </row>
-    <row r="26" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="V26" s="59"/>
       <c r="W26" s="60"/>
       <c r="X26" s="61"/>
       <c r="Y26" s="60"/>
     </row>
-    <row r="27" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C27" s="47"/>
       <c r="D27" s="47"/>
       <c r="V27" s="59"/>
@@ -5405,7 +5309,7 @@
       <c r="X27" s="61"/>
       <c r="Y27" s="60"/>
     </row>
-    <row r="28" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C28" s="47"/>
       <c r="D28" s="47"/>
       <c r="V28" s="59"/>
@@ -5413,19 +5317,19 @@
       <c r="X28" s="61"/>
       <c r="Y28" s="60"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:25" x14ac:dyDescent="0.35">
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.35">
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:25" x14ac:dyDescent="0.35">
       <c r="C31" s="47"/>
       <c r="D31" s="47"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:25" x14ac:dyDescent="0.35">
       <c r="C32" s="47"/>
       <c r="D32" s="47"/>
     </row>
@@ -5437,40 +5341,40 @@
       <c r="C34" s="47"/>
       <c r="D34" s="47"/>
       <c r="M34" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="N34" s="45" t="s">
         <v>46</v>
-      </c>
-      <c r="N34" s="45" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="35" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C35" s="47"/>
       <c r="D35" s="47"/>
       <c r="L35" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M35" s="47">
         <f>N43</f>
-        <v>1861.4999999999995</v>
+        <v>1790.9333333333325</v>
       </c>
       <c r="N35" s="47">
         <f>P43</f>
-        <v>1548.6428571428557</v>
+        <v>1512.3166666666655</v>
       </c>
     </row>
     <row r="36" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C36" s="47"/>
       <c r="D36" s="47"/>
       <c r="L36" s="45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M36" s="47">
         <f>O43</f>
-        <v>976.11428571428576</v>
+        <v>989.15</v>
       </c>
       <c r="N36" s="47">
         <f>Q43</f>
-        <v>1107.5142857142857</v>
+        <v>1102.3</v>
       </c>
     </row>
     <row r="37" spans="3:17" x14ac:dyDescent="0.35">
@@ -5529,49 +5433,49 @@
       </c>
       <c r="N43" s="51">
         <f>(8760*N44)</f>
-        <v>1861.4999999999995</v>
+        <v>1790.9333333333325</v>
       </c>
       <c r="O43" s="51">
         <f t="shared" ref="O43:Q43" si="0">(8760*O44)</f>
-        <v>976.11428571428576</v>
+        <v>989.15</v>
       </c>
       <c r="P43" s="51">
         <f t="shared" si="0"/>
-        <v>1548.6428571428557</v>
+        <v>1512.3166666666655</v>
       </c>
       <c r="Q43" s="51">
         <f t="shared" si="0"/>
-        <v>1107.5142857142857</v>
+        <v>1102.3</v>
       </c>
     </row>
     <row r="44" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C44" s="47"/>
       <c r="D44" s="47"/>
       <c r="L44" s="46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N44" s="52">
         <f>AVERAGE(F4:F26)</f>
-        <v>0.21249999999999994</v>
+        <v>0.20444444444444435</v>
       </c>
       <c r="O44" s="52">
         <f>AVERAGE(G4:G26)</f>
-        <v>0.11142857142857143</v>
+        <v>0.11291666666666667</v>
       </c>
       <c r="P44" s="52">
         <f>AVERAGE(H4:H26)</f>
-        <v>0.17678571428571413</v>
+        <v>0.17263888888888876</v>
       </c>
       <c r="Q44" s="52">
         <f>AVERAGE(I4:I26)</f>
-        <v>0.12642857142857142</v>
+        <v>0.12583333333333332</v>
       </c>
     </row>
     <row r="45" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C45" s="47"/>
       <c r="D45" s="47"/>
       <c r="L45" s="45" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N45" s="45">
         <v>21</v>
